--- a/data/Conditioned_Treatment_Egg_B1.2.xlsx
+++ b/data/Conditioned_Treatment_Egg_B1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1716C428-D13E-3945-871E-974F9235E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D4270ED-167F-D040-89AB-489913E00B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" xr2:uid="{53A0FD11-C9B6-B44F-A4D5-6BA957C6ECA0}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>plate</t>
   </si>
   <si>
-    <t>1:4</t>
+    <t>1:4 Conditioned</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>4:1 Conditioned</t>
   </si>
 </sst>
 </file>
@@ -400,10 +400,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
